--- a/Blueprint.xlsx
+++ b/Blueprint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/riccardo/Documents/GitHub/PSD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89502174-48B2-584B-B383-1D7A4427284F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5F3B06-272D-7345-97A8-1C9D1F4FD84B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16840" yWindow="0" windowWidth="16760" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -227,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -524,21 +524,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -560,6 +545,127 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -568,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -603,6 +709,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -615,74 +784,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -966,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -997,277 +1175,277 @@
     <row r="4" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="20" t="s">
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="62" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="145" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="47" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="36" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="48"/>
     </row>
     <row r="8" spans="2:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="B8" s="12"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="49"/>
     </row>
     <row r="9" spans="2:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="B9" s="12"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="49"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="12"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="49"/>
     </row>
     <row r="11" spans="2:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="B11" s="12"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="K11" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="29" t="s">
+      <c r="M11" s="49" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="81" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="50"/>
     </row>
     <row r="13" spans="2:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="51"/>
     </row>
     <row r="14" spans="2:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="B14" s="12"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="35" t="s">
+      <c r="J14" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35" t="s">
+      <c r="K14" s="26"/>
+      <c r="L14" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="35"/>
+      <c r="M14" s="52"/>
     </row>
     <row r="15" spans="2:13" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37" t="s">
+      <c r="D15" s="27"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="53"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="38"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="11"/>
     </row>
   </sheetData>
